--- a/data/trans_bre/P19C01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.698737142598837</v>
+        <v>-0.6997138715381525</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.250918549773282</v>
+        <v>-8.458660708152909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.7845436904323239</v>
+        <v>-1.519441841074185</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2837362407363769</v>
+        <v>-0.2512108376714757</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04929425394950077</v>
+        <v>-0.03281488473807796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3696145349703491</v>
+        <v>-0.3757481030909977</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.03237166956508519</v>
+        <v>-0.05652393291730879</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.002623712706127504</v>
+        <v>-0.002635773997430472</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.03402604792754</v>
+        <v>18.33363147515334</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.695919863560044</v>
+        <v>5.815001514431917</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.23653660959103</v>
+        <v>14.98881978529186</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.628181107053892</v>
+        <v>6.534759142754003</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7937516126329031</v>
+        <v>0.7942696553292861</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3758903670602948</v>
+        <v>0.3834537252449426</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7497152806360023</v>
+        <v>0.7321878156905013</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.07448888717251831</v>
+        <v>0.07316499719812754</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.368363025630265</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.698625712712681</v>
+        <v>1.69862571271267</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.003771776814156339</v>
@@ -749,7 +749,7 @@
         <v>0.2732263941164983</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.04174507252333617</v>
+        <v>0.04174507252333589</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.242838667605718</v>
+        <v>-6.254339561588014</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.633699774390253</v>
+        <v>-6.399281612910718</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.128003221983991</v>
+        <v>0.5014041123332508</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.538610297298478</v>
+        <v>-4.715268015887907</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1899789055777242</v>
+        <v>-0.1896205905164826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.201589139641688</v>
+        <v>-0.1975512245822389</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0005007951359018168</v>
+        <v>0.01389628929987423</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1228328684408101</v>
+        <v>-0.1019424199192873</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.520552743450195</v>
+        <v>5.922863711463569</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.182035314198962</v>
+        <v>6.974763960394795</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.92708003562497</v>
+        <v>14.03536154767167</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.94718793100446</v>
+        <v>8.178064926136926</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2481239131122959</v>
+        <v>0.2223182876267305</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2384167152980922</v>
+        <v>0.2659949846594201</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5925008514778879</v>
+        <v>0.5798076546019068</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2148155487949214</v>
+        <v>0.2240291797499007</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.69451416360018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4338690128652012</v>
+        <v>0.4338690128652067</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05577396539820174</v>
@@ -849,7 +849,7 @@
         <v>0.04501910422276468</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.01050383900352881</v>
+        <v>0.01050383900352894</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.329122550131763</v>
+        <v>-6.191123095125661</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.893470793029044</v>
+        <v>-5.730040408767599</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.591845727192155</v>
+        <v>-6.601153209707943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.165196837644126</v>
+        <v>-6.994658764094927</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2297961802184757</v>
+        <v>-0.2223912855533182</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1321508697575245</v>
+        <v>-0.1481338141873312</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1398749755533257</v>
+        <v>-0.1605293029462941</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1374404921780192</v>
+        <v>-0.1524027176897343</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.756621120061805</v>
+        <v>9.320915177767827</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.8380440470327</v>
+        <v>10.50561726914183</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.61450671955254</v>
+        <v>9.074471692582188</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.794892074722933</v>
+        <v>7.999597564968313</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4409541195510692</v>
+        <v>0.4616709755313734</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3556263630372096</v>
+        <v>0.3558444039151415</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3156309967319389</v>
+        <v>0.2734122255747239</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2099663045913238</v>
+        <v>0.2177078260172809</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.378012016379328</v>
+        <v>-9.833782227696153</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.967878738532724</v>
+        <v>-1.110573368109771</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-10.79812694640031</v>
+        <v>-10.71625213661148</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.85827508935022</v>
+        <v>-9.082674719218556</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2300138270675733</v>
+        <v>-0.2422857000033922</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05909776578826079</v>
+        <v>-0.03336789712754465</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3193187823737855</v>
+        <v>-0.3106741271832662</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2114980805409074</v>
+        <v>-0.2356260114041779</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.942426203167061</v>
+        <v>6.079818367750558</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.2612223497245</v>
+        <v>14.26649057136747</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.772892814863989</v>
+        <v>3.892562821807571</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.983095774623554</v>
+        <v>7.257612164692112</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1900883680006868</v>
+        <v>0.1909073446902539</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4984877859764025</v>
+        <v>0.5534897536979337</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1500381640701537</v>
+        <v>0.1475671413149245</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2864382270359124</v>
+        <v>0.2623589131905424</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.183419797155596</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.11437304454083</v>
+        <v>3.114373044540797</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08348538865240686</v>
@@ -1049,7 +1049,7 @@
         <v>0.04915871512156256</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0357167699156454</v>
+        <v>0.03571676991564501</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.948054705303242</v>
+        <v>-7.235252732017744</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.291584680077129</v>
+        <v>-2.484384610756882</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.109397974374366</v>
+        <v>-7.537202473092722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.327107842367955</v>
+        <v>-1.432044101327936</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1733448268440355</v>
+        <v>-0.160776935636612</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1028260144869623</v>
+        <v>-0.05432542654561456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1138184387843986</v>
+        <v>-0.1092069923651593</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0144499005108906</v>
+        <v>-0.01548782120178429</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.63586209443955</v>
+        <v>13.74596728650365</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.09650279568531</v>
+        <v>17.20398857168328</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.99113980383813</v>
+        <v>15.63931154185532</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.372590331873244</v>
+        <v>8.312404535446049</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3861601868526467</v>
+        <v>0.392740913674287</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.501873585684959</v>
+        <v>0.5278667168643317</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2413260142266329</v>
+        <v>0.2675803468641185</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1010269075111087</v>
+        <v>0.1001310774602943</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>5.677346893866048</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9.725517736891225</v>
+        <v>9.725517736891231</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3026052312116433</v>
@@ -1149,7 +1149,7 @@
         <v>0.1443939823743976</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2328946461540305</v>
+        <v>0.2328946461540306</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.407177185407773</v>
+        <v>-1.551974941333845</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.1132682491445145</v>
+        <v>1.52505840853712</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.472334020932887</v>
+        <v>-2.524240355629815</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.821181102995925</v>
+        <v>2.063467317418954</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0539004337450611</v>
+        <v>-0.06680333949033017</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.006880412655983835</v>
+        <v>0.03889118540822772</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05124663975994875</v>
+        <v>-0.05539859325039543</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.04301325959977714</v>
+        <v>0.04162686471560574</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.72978732714102</v>
+        <v>16.6176500482589</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.87996401077057</v>
+        <v>17.33974661542813</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.40572778843565</v>
+        <v>14.8713036236987</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.90263094918939</v>
+        <v>17.16641994306235</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8934082233849475</v>
+        <v>0.8006811592968002</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7070547561264869</v>
+        <v>0.6671237284713718</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4679714201304177</v>
+        <v>0.4467267241938327</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4855924202035356</v>
+        <v>0.4469995449751957</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-0.3971999300981022</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-2.378338982702966</v>
+        <v>-2.378338982702954</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1742421015949067</v>
@@ -1249,7 +1249,7 @@
         <v>-0.007972502456689026</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.04041586444596836</v>
+        <v>-0.04041586444596818</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.003693208341256</v>
+        <v>-2.069616363234437</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.161776456740744</v>
+        <v>3.033269855789936</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.363667975728193</v>
+        <v>-6.62074592234679</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.006395983463614</v>
+        <v>-7.627146069138237</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.08093446044139803</v>
+        <v>-0.08075668123839606</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09180853614653608</v>
+        <v>0.09538610768936724</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1385982134564156</v>
+        <v>-0.1231858822333762</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1296664285715471</v>
+        <v>-0.1234630329053035</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.91266303301644</v>
+        <v>9.511770062047873</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.68184204714296</v>
+        <v>14.76636295230824</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.936263389640144</v>
+        <v>7.154950563771743</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.393200332292984</v>
+        <v>3.127409190414117</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4781220336145481</v>
+        <v>0.5135807146699066</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5256995758716909</v>
+        <v>0.529933279456441</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1253128850044856</v>
+        <v>0.1650514259082355</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.06115537156166469</v>
+        <v>0.05708516067803968</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>1.328839534623205</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5.806383451794606</v>
+        <v>5.806383451794616</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.04947910565260564</v>
@@ -1349,7 +1349,7 @@
         <v>0.0257776093369861</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.08512520436012082</v>
+        <v>0.08512520436012101</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-7.199986878889863</v>
+        <v>-7.148285263552774</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.896416459863748</v>
+        <v>-0.8752197917037176</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-4.120878991987749</v>
+        <v>-4.138061193792101</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.442048140639901</v>
+        <v>1.378490634058025</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1934143087317179</v>
+        <v>-0.1866815914848763</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03161320407380201</v>
+        <v>-0.03114182454062478</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07745623533115156</v>
+        <v>-0.07549442248160072</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02139147346077774</v>
+        <v>0.01965766489682769</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.755893064852429</v>
+        <v>3.8899361704737</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.549338070275295</v>
+        <v>9.420814788418548</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.148328452700293</v>
+        <v>7.290640611653701</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.27272895491915</v>
+        <v>9.96438194789571</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1097422824375173</v>
+        <v>0.1221266405491815</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3835538425921032</v>
+        <v>0.3801135727027457</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1446556970795277</v>
+        <v>0.1482624873996642</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1579830141881117</v>
+        <v>0.1528564566527506</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>2.598297656122966</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2.069774802412327</v>
+        <v>2.069774802412339</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05279459572874643</v>
@@ -1449,7 +1449,7 @@
         <v>0.06372151631481444</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.03627230831326671</v>
+        <v>0.03627230831326691</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.9208946504929075</v>
+        <v>-1.272458776027707</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.404419481039328</v>
+        <v>2.336690789878933</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.06453011046602668</v>
+        <v>-0.312250377338666</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.4761006043263542</v>
+        <v>-0.1384531943960761</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.03018791758244679</v>
+        <v>-0.04030176384191315</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07852111428598614</v>
+        <v>0.07515081437521601</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.001623973558500025</v>
+        <v>-0.007765687040048441</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.007408062599418699</v>
+        <v>-0.002114944409027382</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.058320002838343</v>
+        <v>4.059239711779629</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.651350463415535</v>
+        <v>7.258020000209778</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.334608983880989</v>
+        <v>5.403302709601756</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.271467233461544</v>
+        <v>4.754266162148933</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1413124428586719</v>
+        <v>0.1430958008480857</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2721596596967069</v>
+        <v>0.2552173964093815</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1355452447925151</v>
+        <v>0.1361530571755165</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.07769684552193647</v>
+        <v>0.08576786744364458</v>
       </c>
     </row>
     <row r="31">
